--- a/LR3/table_1_11.xlsx
+++ b/LR3/table_1_11.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\лаба 3 моеееее\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IT\IT_LR\LR3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79683687-1FCC-4771-825C-F1843E9E0846}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74770F1C-2A2D-4851-892B-AB034D772497}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="12450" windowHeight="5745" xr2:uid="{CE5911EA-0437-40E2-9639-8664AD3A3C54}"/>
   </bookViews>
@@ -577,7 +577,7 @@
   <dimension ref="A1:K43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -700,6 +700,7 @@
         <v>0</v>
       </c>
       <c r="I4">
+        <f>I3</f>
         <v>10</v>
       </c>
       <c r="J4">
@@ -742,6 +743,7 @@
         <v>0</v>
       </c>
       <c r="I5">
+        <f t="shared" ref="I5:I38" si="7">I4</f>
         <v>10</v>
       </c>
       <c r="J5">
@@ -784,6 +786,7 @@
         <v>0</v>
       </c>
       <c r="I6">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J6">
@@ -826,6 +829,7 @@
         <v>0</v>
       </c>
       <c r="I7">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J7">
@@ -868,6 +872,7 @@
         <v>0</v>
       </c>
       <c r="I8">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J8">
@@ -910,6 +915,7 @@
         <v>0</v>
       </c>
       <c r="I9">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J9">
@@ -952,6 +958,7 @@
         <v>0</v>
       </c>
       <c r="I10">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J10">
@@ -994,6 +1001,7 @@
         <v>0</v>
       </c>
       <c r="I11">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J11">
@@ -1036,6 +1044,7 @@
         <v>1</v>
       </c>
       <c r="I12">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J12">
@@ -1078,6 +1087,7 @@
         <v>2</v>
       </c>
       <c r="I13">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J13">
@@ -1120,6 +1130,7 @@
         <v>3</v>
       </c>
       <c r="I14">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J14">
@@ -1162,6 +1173,7 @@
         <v>4</v>
       </c>
       <c r="I15">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J15">
@@ -1204,6 +1216,7 @@
         <v>5</v>
       </c>
       <c r="I16">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J16">
@@ -1246,6 +1259,7 @@
         <v>6</v>
       </c>
       <c r="I17">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J17">
@@ -1288,6 +1302,7 @@
         <v>7</v>
       </c>
       <c r="I18">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J18">
@@ -1330,6 +1345,7 @@
         <v>8</v>
       </c>
       <c r="I19">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J19">
@@ -1372,6 +1388,7 @@
         <v>9</v>
       </c>
       <c r="I20">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J20">
@@ -1414,6 +1431,7 @@
         <v>10</v>
       </c>
       <c r="I21">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J21">
@@ -1456,6 +1474,7 @@
         <v>11</v>
       </c>
       <c r="I22">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J22">
@@ -1498,6 +1517,7 @@
         <v>12</v>
       </c>
       <c r="I23">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J23">
@@ -1540,6 +1560,7 @@
         <v>13</v>
       </c>
       <c r="I24">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J24">
@@ -1582,6 +1603,7 @@
         <v>14</v>
       </c>
       <c r="I25">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J25">
@@ -1624,6 +1646,7 @@
         <v>15</v>
       </c>
       <c r="I26">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J26">
@@ -1666,6 +1689,7 @@
         <v>16</v>
       </c>
       <c r="I27">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J27">
@@ -1708,6 +1732,7 @@
         <v>17</v>
       </c>
       <c r="I28">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J28">
@@ -1750,6 +1775,7 @@
         <v>18</v>
       </c>
       <c r="I29">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J29">
@@ -1792,6 +1818,7 @@
         <v>19</v>
       </c>
       <c r="I30">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J30">
@@ -1834,6 +1861,7 @@
         <v>20</v>
       </c>
       <c r="I31">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J31">
@@ -1876,6 +1904,7 @@
         <v>21</v>
       </c>
       <c r="I32">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J32">
@@ -1918,6 +1947,7 @@
         <v>22</v>
       </c>
       <c r="I33">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J33">
@@ -1960,6 +1990,7 @@
         <v>23</v>
       </c>
       <c r="I34">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J34">
@@ -2002,6 +2033,7 @@
         <v>24</v>
       </c>
       <c r="I35">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J35">
@@ -2024,7 +2056,7 @@
         <v>53.5</v>
       </c>
       <c r="D36">
-        <f t="shared" ref="D36:D38" si="7">$A$1*1.1/2</f>
+        <f t="shared" ref="D36:D38" si="8">$A$1*1.1/2</f>
         <v>6.0500000000000007</v>
       </c>
       <c r="E36">
@@ -2044,6 +2076,7 @@
         <v>25</v>
       </c>
       <c r="I36">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J36">
@@ -2066,7 +2099,7 @@
         <v>53</v>
       </c>
       <c r="D37">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>6.0500000000000007</v>
       </c>
       <c r="E37">
@@ -2086,6 +2119,7 @@
         <v>26</v>
       </c>
       <c r="I37">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J37">
@@ -2108,7 +2142,7 @@
         <v>52.5</v>
       </c>
       <c r="D38">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>6.0500000000000007</v>
       </c>
       <c r="E38">
@@ -2128,6 +2162,7 @@
         <v>27</v>
       </c>
       <c r="I38">
+        <f t="shared" si="7"/>
         <v>10</v>
       </c>
       <c r="J38">

--- a/LR3/table_1_11.xlsx
+++ b/LR3/table_1_11.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20827"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{164E7DA1-7620-47B8-A7E7-541F51946CAF}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96707D13-C326-45D9-AC83-D9DF9EBB484D}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19860" windowHeight="12240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -137,9 +137,6 @@
     <t>Алимжанов</t>
   </si>
   <si>
-    <t>Балашов</t>
-  </si>
-  <si>
     <t>Беккер</t>
   </si>
   <si>
@@ -168,6 +165,9 @@
   </si>
   <si>
     <t>Махмутов</t>
+  </si>
+  <si>
+    <t>Максим</t>
   </si>
 </sst>
 </file>
@@ -568,7 +568,7 @@
   <dimension ref="A1:K43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -629,7 +629,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C3" s="1">
         <v>70</v>
@@ -670,7 +670,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C4" s="1">
         <f>C3-0.5</f>
@@ -715,7 +715,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="C5" s="1">
         <f t="shared" ref="C5:C38" si="4">C4-0.5</f>
@@ -760,7 +760,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C6" s="1">
         <f t="shared" si="4"/>
@@ -805,7 +805,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="C7" s="1">
         <f t="shared" si="4"/>
@@ -850,7 +850,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C8" s="1">
         <f t="shared" si="4"/>
@@ -895,7 +895,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="C9" s="1">
         <f t="shared" si="4"/>
@@ -940,7 +940,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C10" s="1">
         <f t="shared" si="4"/>
@@ -985,7 +985,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="C11" s="1">
         <f t="shared" si="4"/>
@@ -1030,7 +1030,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="C12" s="1">
         <f t="shared" si="4"/>
@@ -1075,7 +1075,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="C13" s="1">
         <f t="shared" si="4"/>
@@ -1120,7 +1120,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C14" s="1">
         <f t="shared" si="4"/>
@@ -1165,7 +1165,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C15" s="1">
         <f t="shared" si="4"/>
@@ -1210,7 +1210,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C16" s="1">
         <f t="shared" si="4"/>
@@ -1255,7 +1255,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C17" s="1">
         <f t="shared" si="4"/>
@@ -1390,7 +1390,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="C20" s="1">
         <f t="shared" si="4"/>
@@ -1435,7 +1435,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="C21" s="1">
         <f t="shared" si="4"/>
@@ -1480,7 +1480,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="C22" s="1">
         <f t="shared" si="4"/>

--- a/LR3/table_1_11.xlsx
+++ b/LR3/table_1_11.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20827"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96707D13-C326-45D9-AC83-D9DF9EBB484D}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1169DDC-3917-431D-B85F-38E1EB6F4F41}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19860" windowHeight="12240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -167,7 +167,7 @@
     <t>Махмутов</t>
   </si>
   <si>
-    <t>Максим</t>
+    <t>Балашов</t>
   </si>
 </sst>
 </file>
@@ -568,7 +568,7 @@
   <dimension ref="A1:K43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>

--- a/LR3/table_1_11.xlsx
+++ b/LR3/table_1_11.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20827"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1169DDC-3917-431D-B85F-38E1EB6F4F41}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DA22F6D-EC88-486D-95F4-39EA76A21AE7}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19860" windowHeight="12240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,9 +38,6 @@
     <t>Штраф, руб.</t>
   </si>
   <si>
-    <t>Максимальный срок просрочки, дней</t>
-  </si>
-  <si>
     <t>Общая сумма, руб.</t>
   </si>
   <si>
@@ -168,6 +165,9 @@
   </si>
   <si>
     <t>Балашов</t>
+  </si>
+  <si>
+    <t>Максимальный срок просрочки, дней.</t>
   </si>
 </sst>
 </file>
@@ -567,8 +567,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -594,13 +594,13 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>3</v>
@@ -612,10 +612,10 @@
         <v>2</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>6</v>
@@ -629,7 +629,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C3" s="1">
         <v>70</v>
@@ -670,7 +670,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C4" s="1">
         <f>C3-0.5</f>
@@ -715,7 +715,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C5" s="1">
         <f t="shared" ref="C5:C38" si="4">C4-0.5</f>
@@ -760,7 +760,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C6" s="1">
         <f t="shared" si="4"/>
@@ -805,7 +805,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7" s="1">
         <f t="shared" si="4"/>
@@ -850,7 +850,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C8" s="1">
         <f t="shared" si="4"/>
@@ -895,7 +895,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C9" s="1">
         <f t="shared" si="4"/>
@@ -940,7 +940,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C10" s="1">
         <f t="shared" si="4"/>
@@ -985,7 +985,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C11" s="1">
         <f t="shared" si="4"/>
@@ -1030,7 +1030,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C12" s="1">
         <f t="shared" si="4"/>
@@ -1075,7 +1075,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C13" s="1">
         <f t="shared" si="4"/>
@@ -1120,7 +1120,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C14" s="1">
         <f t="shared" si="4"/>
@@ -1165,7 +1165,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C15" s="1">
         <f t="shared" si="4"/>
@@ -1210,7 +1210,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C16" s="1">
         <f t="shared" si="4"/>
@@ -1255,7 +1255,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C17" s="1">
         <f t="shared" si="4"/>
@@ -1300,7 +1300,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C18" s="1">
         <f t="shared" si="4"/>
@@ -1345,7 +1345,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C19" s="1">
         <f t="shared" si="4"/>
@@ -1390,7 +1390,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C20" s="1">
         <f t="shared" si="4"/>
@@ -1435,7 +1435,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C21" s="1">
         <f t="shared" si="4"/>
@@ -1480,7 +1480,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C22" s="1">
         <f t="shared" si="4"/>
@@ -1570,7 +1570,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C24" s="1">
         <f t="shared" si="4"/>
@@ -1615,7 +1615,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C25" s="1">
         <f t="shared" si="4"/>
@@ -1660,7 +1660,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C26" s="1">
         <f t="shared" si="4"/>
@@ -1705,7 +1705,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C27" s="1">
         <f t="shared" si="4"/>
@@ -1750,7 +1750,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C28" s="1">
         <f t="shared" si="4"/>
@@ -1795,7 +1795,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C29" s="1">
         <f t="shared" si="4"/>
@@ -1840,7 +1840,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C30" s="1">
         <f t="shared" si="4"/>
@@ -1885,7 +1885,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C31" s="1">
         <f t="shared" si="4"/>
@@ -1930,7 +1930,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C32" s="1">
         <f t="shared" si="4"/>
@@ -1975,7 +1975,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C33" s="1">
         <f t="shared" si="4"/>
@@ -2020,7 +2020,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C34" s="1">
         <f t="shared" si="4"/>
@@ -2065,7 +2065,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C35" s="1">
         <f t="shared" si="4"/>
@@ -2110,7 +2110,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C36" s="1">
         <f t="shared" si="4"/>
@@ -2155,7 +2155,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C37" s="1">
         <f t="shared" si="4"/>
@@ -2200,7 +2200,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C38" s="1">
         <f t="shared" si="4"/>
@@ -2239,9 +2239,9 @@
         <v>587.625</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B40" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C40" s="7">
         <f>FLOOR(SUM(K3:K38),1)</f>
@@ -2250,7 +2250,7 @@
     </row>
     <row r="41" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B41" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C41" s="1">
         <f>AVERAGE(C3:C38)</f>
@@ -2259,7 +2259,7 @@
     </row>
     <row r="42" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B42" s="5" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="C42" s="1">
         <f>MAX(H3:H38)</f>
@@ -2268,7 +2268,7 @@
     </row>
     <row r="43" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B43" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C43" s="1">
         <f>MAX(K3:K38)</f>

--- a/LR3/table_1_11.xlsx
+++ b/LR3/table_1_11.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Студент\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B0EDC36A-ADBC-4EB6-988D-7D292DCEE167}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4E9942A6-67DD-4042-9F55-1A1269B69F9B}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" xr2:uid="{8CB657CC-A3C4-4318-B3B8-29DA035C24A9}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15300" windowHeight="11895" xr2:uid="{8CB657CC-A3C4-4318-B3B8-29DA035C24A9}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
